--- a/JupyterNotebooks/AveragedIntensities-SRP/UniformF-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-SRP/UniformF-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -31,6 +31,18 @@
     <t>Spiral</t>
   </si>
   <si>
+    <t>OffsetF</t>
+  </si>
+  <si>
+    <t>OffsetA</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt5degRes</t>
   </si>
   <si>
@@ -59,6 +71,9 @@
   </si>
   <si>
     <t>1Pair-A</t>
+  </si>
+  <si>
+    <t>1Pair-B</t>
   </si>
   <si>
     <t>2Pairs-A</t>
@@ -440,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -501,8 +516,11 @@
       <c r="S1" s="1">
         <v>17</v>
       </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -510,58 +528,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -619,8 +640,11 @@
       <c r="S3">
         <v>1</v>
       </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -678,8 +702,11 @@
       <c r="S4">
         <v>1</v>
       </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -737,8 +764,11 @@
       <c r="S5">
         <v>1</v>
       </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -796,8 +826,11 @@
       <c r="S6">
         <v>1</v>
       </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -853,6 +886,257 @@
         <v>1</v>
       </c>
       <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
         <v>1</v>
       </c>
     </row>
